--- a/Docs/DeclaracionEsfuerzo.xlsx
+++ b/Docs/DeclaracionEsfuerzo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsimm_000\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsimm_000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Nota global de experimento</t>
   </si>
@@ -50,30 +50,12 @@
     <t>Programa de cerradura (Simulado a través de wiring)</t>
   </si>
   <si>
-    <t>Programa de hub (Simulado a través de nodered)</t>
-  </si>
-  <si>
     <t>Servidores de mensajería (Por ejemplo, Mosquitto, Kafka)</t>
   </si>
   <si>
-    <t>Programa P</t>
-  </si>
-  <si>
-    <t>Código de notificación</t>
-  </si>
-  <si>
-    <t>Código de persistencia</t>
-  </si>
-  <si>
-    <t>Documentación</t>
-  </si>
-  <si>
     <t>Montaje físico de cerradura</t>
   </si>
   <si>
-    <t>Otra cuál?</t>
-  </si>
-  <si>
     <t>Nicolas Simmonds</t>
   </si>
   <si>
@@ -84,6 +66,12 @@
   </si>
   <si>
     <t xml:space="preserve">Camilo Penagos </t>
+  </si>
+  <si>
+    <t>Programa Disparador</t>
+  </si>
+  <si>
+    <t>Auth0</t>
   </si>
 </sst>
 </file>
@@ -555,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,8 +555,8 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,11 +567,8 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -602,28 +587,21 @@
       <c r="F3" s="5">
         <v>5</v>
       </c>
-      <c r="G3" s="5">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5">
-        <v>8</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6">
+      <c r="H3" s="6">
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
@@ -631,23 +609,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5">
+      <c r="G4" s="5">
         <v>25</v>
       </c>
-      <c r="K4" s="6">
+      <c r="H4" s="6">
         <v>3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
@@ -656,77 +627,62 @@
         <v>3</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5">
         <v>25</v>
       </c>
-      <c r="K5" s="6">
+      <c r="H5" s="6">
         <v>3.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5">
+      <c r="G6" s="5">
         <v>25</v>
       </c>
-      <c r="K6" s="6">
+      <c r="H6" s="6">
         <v>3.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5">
         <v>25</v>
       </c>
-      <c r="K7" s="6">
+      <c r="H7" s="6">
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -737,11 +693,8 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -750,11 +703,8 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
@@ -767,11 +717,8 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -784,11 +731,8 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>2</v>
       </c>
@@ -801,16 +745,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>9</v>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -818,16 +759,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>10</v>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -835,16 +773,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>5</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -852,77 +787,43 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>6</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>7</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>8</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>9</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/DeclaracionEsfuerzo.xlsx
+++ b/Docs/DeclaracionEsfuerzo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Nota global de experimento</t>
   </si>
@@ -546,7 +546,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,9 +590,7 @@
       <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6">
-        <v>3.8</v>
-      </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -610,10 +608,10 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="5">
-        <v>25</v>
+        <v>33.332999999999998</v>
       </c>
       <c r="H4" s="6">
-        <v>3.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -632,32 +630,24 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="5">
-        <v>25</v>
+        <v>33.332999999999998</v>
       </c>
       <c r="H5" s="6">
-        <v>3.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5">
-        <v>25</v>
-      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="6">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -676,10 +666,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="5">
-        <v>25</v>
+        <v>33.332999999999998</v>
       </c>
       <c r="H7" s="6">
-        <v>3.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -691,7 +681,9 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Docs/DeclaracionEsfuerzo.xlsx
+++ b/Docs/DeclaracionEsfuerzo.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsimm_000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +71,7 @@
     <t>Programa Disparador</t>
   </si>
   <si>
-    <t>Auth0</t>
+    <t>Generación y recepción de HeartBeats</t>
   </si>
 </sst>
 </file>
@@ -546,13 +546,13 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -630,7 +630,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="5">
-        <v>33.332999999999998</v>
+        <v>0</v>
       </c>
       <c r="H5" s="6">
         <v>5</v>
@@ -645,7 +645,9 @@
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>33.332999999999998</v>
+      </c>
       <c r="H6" s="6">
         <v>0</v>
       </c>
@@ -819,5 +821,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/DeclaracionEsfuerzo.xlsx
+++ b/Docs/DeclaracionEsfuerzo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsimm_000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Nota global de experimento</t>
   </si>
@@ -546,7 +546,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +630,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>33.332999999999998</v>
       </c>
       <c r="H5" s="6">
         <v>5</v>
@@ -640,11 +640,17 @@
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="5">
         <v>33.332999999999998</v>
       </c>

--- a/Docs/DeclaracionEsfuerzo.xlsx
+++ b/Docs/DeclaracionEsfuerzo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,19 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Declaracion" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Nota global de experimento</t>
   </si>
@@ -35,7 +30,7 @@
     <t>Esfuerzo porcentaje</t>
   </si>
   <si>
-    <t>X</t>
+    <t>Nota individual</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -47,44 +42,50 @@
     <t>ARTEFACTO</t>
   </si>
   <si>
-    <t>Programa de cerradura (Simulado a través de wiring)</t>
-  </si>
-  <si>
-    <t>Servidores de mensajería (Por ejemplo, Mosquitto, Kafka)</t>
-  </si>
-  <si>
-    <t>Montaje físico de cerradura</t>
-  </si>
-  <si>
-    <t>Nicolas Simmonds</t>
-  </si>
-  <si>
-    <t>Juan Pabo Otalora</t>
-  </si>
-  <si>
-    <t>Luis Carlos Garavito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camilo Penagos </t>
-  </si>
-  <si>
-    <t>Programa Disparador</t>
-  </si>
-  <si>
-    <t>Generación y recepción de HeartBeats</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Camilo</t>
+  </si>
+  <si>
+    <t>Juan Pablo</t>
+  </si>
+  <si>
+    <t>Luis Carlos</t>
+  </si>
+  <si>
+    <t>Entidad virtual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -94,7 +95,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -107,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -116,77 +116,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -194,40 +212,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,290 +578,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A3" sqref="A3:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="15"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="6">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5">
-        <v>33.332999999999998</v>
-      </c>
-      <c r="H4" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5">
-        <v>33.332999999999998</v>
-      </c>
-      <c r="H5" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5">
-        <v>33.332999999999998</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="5">
-        <v>33.332999999999998</v>
-      </c>
-      <c r="H7" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>100</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>5</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="H7:H8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>